--- a/test.xlsx
+++ b/test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -34,7 +34,7 @@
     <definedName name="NormalCost">Dex!$B$4</definedName>
     <definedName name="SaleMonth">Dex!$B$21</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -394,7 +394,7 @@
     <t>Andy</t>
   </si>
   <si>
-    <t xml:space="preserve">Andy </t>
+    <t>Andy 3</t>
   </si>
 </sst>
 </file>
@@ -5214,7 +5214,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26850" windowHeight="10905" activeTab="2" xr2:uid="{59FD5CA5-D74D-46A7-8C2D-6CA84104357C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26850" windowHeight="10905" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dex" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="116">
   <si>
     <t>Model Home Financing</t>
   </si>
@@ -392,15 +392,12 @@
   </si>
   <si>
     <t>Andy</t>
-  </si>
-  <si>
-    <t>Andy 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1071,7 +1068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E4D325-8F8A-4C27-89A1-FED86691F931}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R26"/>
   <sheetViews>
@@ -2534,7 +2531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F26A5E3-325A-404D-8312-2A35693F6F45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I141"/>
   <sheetViews>
@@ -5210,11 +5207,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46121FA-6F54-437C-8C4A-045A04DCF8B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5273,10 +5270,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C2">
         <v>40</v>
@@ -5882,12 +5879,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{5FC6E406-3F9E-4826-98DB-1AEB8986BA76}"/>
-    <hyperlink ref="L2" r:id="rId2" xr:uid="{C1A2B230-4961-4AAE-863A-2DBB7D921903}"/>
-    <hyperlink ref="E3:E21" r:id="rId3" display="Dbryer@gmail.com" xr:uid="{332858EE-99ED-452F-9235-1536B7A4245D}"/>
-    <hyperlink ref="L3:L21" r:id="rId4" display="http://dropbox.com" xr:uid="{04BD8E65-73FB-4997-8A55-4B405E47C5D4}"/>
-    <hyperlink ref="E22" r:id="rId5" xr:uid="{0E833EFF-538A-4BDB-9487-059E0A053AA4}"/>
-    <hyperlink ref="L22" r:id="rId6" xr:uid="{0161EAD5-848E-4E78-8FD2-4FE0D7DAAC3D}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="L2" r:id="rId2"/>
+    <hyperlink ref="E3:E21" r:id="rId3" display="Dbryer@gmail.com"/>
+    <hyperlink ref="L3:L21" r:id="rId4" display="http://dropbox.com"/>
+    <hyperlink ref="E22" r:id="rId5"/>
+    <hyperlink ref="L22" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -34,7 +34,7 @@
     <definedName name="NormalCost">Dex!$B$4</definedName>
     <definedName name="SaleMonth">Dex!$B$21</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="110">
   <si>
     <t>Model Home Financing</t>
   </si>
@@ -374,24 +374,6 @@
   </si>
   <si>
     <t>download link</t>
-  </si>
-  <si>
-    <t>Derek Bryer</t>
-  </si>
-  <si>
-    <t>Dbryer@gmail.com</t>
-  </si>
-  <si>
-    <t>http://dropbox.com</t>
-  </si>
-  <si>
-    <t>dexhonsa@hotmail.com</t>
-  </si>
-  <si>
-    <t>Super Risky</t>
-  </si>
-  <si>
-    <t>Andy</t>
   </si>
 </sst>
 </file>
@@ -5211,7 +5193,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5269,624 +5251,135 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="H2" s="25">
-        <v>43101</v>
-      </c>
-      <c r="J2" s="26">
-        <v>0.76</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>112</v>
-      </c>
+      <c r="E2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="J2" s="26"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3">
-        <v>110</v>
-      </c>
-      <c r="D3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="H3" s="25">
-        <v>43102</v>
-      </c>
-      <c r="J3" s="26">
-        <v>0.93</v>
-      </c>
-      <c r="L3" s="24" t="s">
-        <v>112</v>
-      </c>
+      <c r="E3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="J3" s="26"/>
+      <c r="L3" s="24"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4">
-        <v>120</v>
-      </c>
-      <c r="D4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-      <c r="H4" s="25">
-        <v>43103</v>
-      </c>
-      <c r="J4" s="26">
-        <v>0.34</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>112</v>
-      </c>
+      <c r="E4" s="24"/>
+      <c r="H4" s="25"/>
+      <c r="J4" s="26"/>
+      <c r="L4" s="24"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5">
-        <v>120</v>
-      </c>
-      <c r="D5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="F5">
-        <v>20</v>
-      </c>
-      <c r="H5" s="25">
-        <v>43104</v>
-      </c>
-      <c r="J5" s="26">
-        <v>0.85</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>112</v>
-      </c>
+      <c r="E5" s="24"/>
+      <c r="H5" s="25"/>
+      <c r="J5" s="26"/>
+      <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6">
-        <v>70</v>
-      </c>
-      <c r="D6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="F6">
-        <v>20</v>
-      </c>
-      <c r="H6" s="25">
-        <v>43105</v>
-      </c>
-      <c r="J6" s="26">
-        <v>0.44</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>112</v>
-      </c>
+      <c r="E6" s="24"/>
+      <c r="H6" s="25"/>
+      <c r="J6" s="26"/>
+      <c r="L6" s="24"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7">
-        <v>90</v>
-      </c>
-      <c r="D7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7">
-        <v>20</v>
-      </c>
-      <c r="H7" s="25">
-        <v>43106</v>
-      </c>
-      <c r="J7" s="26">
-        <v>0.75</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>112</v>
-      </c>
+      <c r="E7" s="24"/>
+      <c r="H7" s="25"/>
+      <c r="J7" s="26"/>
+      <c r="L7" s="24"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8">
-        <v>130</v>
-      </c>
-      <c r="D8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8">
-        <v>20</v>
-      </c>
-      <c r="H8" s="25">
-        <v>43107</v>
-      </c>
-      <c r="J8" s="26">
-        <v>0.87</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>112</v>
-      </c>
+      <c r="E8" s="24"/>
+      <c r="H8" s="25"/>
+      <c r="J8" s="26"/>
+      <c r="L8" s="24"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9">
-        <v>90</v>
-      </c>
-      <c r="D9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9">
-        <v>20</v>
-      </c>
-      <c r="H9" s="25">
-        <v>43108</v>
-      </c>
-      <c r="J9" s="26">
-        <v>0.52</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>112</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="E9" s="24"/>
+      <c r="H9" s="25"/>
+      <c r="J9" s="26"/>
+      <c r="L9" s="24"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10">
-        <v>80</v>
-      </c>
-      <c r="D10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10">
-        <v>20</v>
-      </c>
-      <c r="H10" s="25">
-        <v>43109</v>
-      </c>
-      <c r="J10" s="26">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="L10" s="24" t="s">
-        <v>112</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="E10" s="24"/>
+      <c r="H10" s="25"/>
+      <c r="J10" s="26"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11">
-        <v>160</v>
-      </c>
-      <c r="D11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="F11">
-        <v>20</v>
-      </c>
-      <c r="H11" s="25">
-        <v>43110</v>
-      </c>
-      <c r="J11" s="26">
-        <v>0.95</v>
-      </c>
-      <c r="L11" s="24" t="s">
-        <v>112</v>
-      </c>
+      <c r="E11" s="24"/>
+      <c r="H11" s="25"/>
+      <c r="J11" s="26"/>
+      <c r="L11" s="24"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12">
-        <v>50</v>
-      </c>
-      <c r="D12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12">
-        <v>20</v>
-      </c>
-      <c r="H12" s="25">
-        <v>43111</v>
-      </c>
-      <c r="J12" s="26">
-        <v>0.26</v>
-      </c>
-      <c r="L12" s="24" t="s">
-        <v>112</v>
-      </c>
+      <c r="E12" s="24"/>
+      <c r="H12" s="25"/>
+      <c r="J12" s="26"/>
+      <c r="L12" s="24"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13">
-        <v>90</v>
-      </c>
-      <c r="D13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13">
-        <v>20</v>
-      </c>
-      <c r="H13" s="25">
-        <v>43112</v>
-      </c>
-      <c r="J13" s="26">
-        <v>0.34</v>
-      </c>
-      <c r="L13" s="24" t="s">
-        <v>112</v>
-      </c>
+      <c r="E13" s="24"/>
+      <c r="H13" s="25"/>
+      <c r="J13" s="26"/>
+      <c r="L13" s="24"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14">
-        <v>90</v>
-      </c>
-      <c r="D14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14">
-        <v>20</v>
-      </c>
-      <c r="H14" s="25">
-        <v>43113</v>
-      </c>
-      <c r="J14" s="26">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="L14" s="24" t="s">
-        <v>112</v>
-      </c>
+      <c r="E14" s="24"/>
+      <c r="H14" s="25"/>
+      <c r="J14" s="26"/>
+      <c r="L14" s="24"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15">
-        <v>70</v>
-      </c>
-      <c r="D15" t="s">
-        <v>110</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15">
-        <v>20</v>
-      </c>
-      <c r="H15" s="25">
-        <v>43114</v>
-      </c>
-      <c r="J15" s="26">
-        <v>0.85</v>
-      </c>
-      <c r="L15" s="24" t="s">
-        <v>112</v>
-      </c>
+      <c r="E15" s="24"/>
+      <c r="H15" s="25"/>
+      <c r="J15" s="26"/>
+      <c r="L15" s="24"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16">
-        <v>130</v>
-      </c>
-      <c r="D16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="F16">
-        <v>20</v>
-      </c>
-      <c r="H16" s="25">
-        <v>43115</v>
-      </c>
-      <c r="J16" s="26">
-        <v>0.52</v>
-      </c>
-      <c r="L16" s="24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17">
-        <v>120</v>
-      </c>
-      <c r="D17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17">
-        <v>20</v>
-      </c>
-      <c r="H17" s="25">
-        <v>43116</v>
-      </c>
-      <c r="J17" s="26">
-        <v>0.62</v>
-      </c>
-      <c r="L17" s="24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18">
-        <v>80</v>
-      </c>
-      <c r="D18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18">
-        <v>20</v>
-      </c>
-      <c r="H18" s="25">
-        <v>43117</v>
-      </c>
-      <c r="J18" s="26">
-        <v>0.36</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19">
-        <v>120</v>
-      </c>
-      <c r="D19" t="s">
-        <v>110</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19">
-        <v>20</v>
-      </c>
-      <c r="H19" s="25">
-        <v>43118</v>
-      </c>
-      <c r="J19" s="26">
-        <v>0.89</v>
-      </c>
-      <c r="L19" s="24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20">
-        <v>140</v>
-      </c>
-      <c r="D20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20">
-        <v>20</v>
-      </c>
-      <c r="H20" s="25">
-        <v>43119</v>
-      </c>
-      <c r="J20" s="26">
-        <v>0.62</v>
-      </c>
-      <c r="L20" s="24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21">
-        <v>170</v>
-      </c>
-      <c r="D21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21">
-        <v>20</v>
-      </c>
-      <c r="H21" s="25">
-        <v>43120</v>
-      </c>
-      <c r="J21" s="26">
-        <v>0.76</v>
-      </c>
-      <c r="L21" s="24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22">
-        <v>200</v>
-      </c>
-      <c r="D22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="F22">
-        <v>20</v>
-      </c>
-      <c r="H22" s="25">
-        <v>43120</v>
-      </c>
-      <c r="J22" s="26">
-        <v>1</v>
-      </c>
-      <c r="L22" s="24" t="s">
-        <v>112</v>
-      </c>
+      <c r="E16" s="24"/>
+      <c r="H16" s="25"/>
+      <c r="J16" s="26"/>
+      <c r="L16" s="24"/>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="J17" s="26"/>
+      <c r="L17" s="24"/>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E18" s="24"/>
+      <c r="H18" s="25"/>
+      <c r="J18" s="26"/>
+      <c r="L18" s="24"/>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E19" s="24"/>
+      <c r="H19" s="25"/>
+      <c r="J19" s="26"/>
+      <c r="L19" s="24"/>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E20" s="24"/>
+      <c r="H20" s="25"/>
+      <c r="J20" s="26"/>
+      <c r="L20" s="24"/>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E21" s="24"/>
+      <c r="H21" s="25"/>
+      <c r="J21" s="26"/>
+      <c r="L21" s="24"/>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E22" s="24"/>
+      <c r="H22" s="25"/>
+      <c r="J22" s="26"/>
+      <c r="L22" s="24"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="L2" r:id="rId2"/>
-    <hyperlink ref="E3:E21" r:id="rId3" display="Dbryer@gmail.com"/>
-    <hyperlink ref="L3:L21" r:id="rId4" display="http://dropbox.com"/>
-    <hyperlink ref="E22" r:id="rId5"/>
-    <hyperlink ref="L22" r:id="rId6"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>